--- a/BG/设计表cyr.xlsx
+++ b/BG/设计表cyr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8424"/>
+    <workbookView windowWidth="27945" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
   <si>
     <t>主题</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恢复2点血量。若本回合未受攻击，下回合开始时</t>
     </r>
     <r>
@@ -189,6 +195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>造成1点伤害。若对方无护盾，下回合抽1张1-2牌并使其下回合</t>
     </r>
     <r>
@@ -315,7 +327,7 @@
     <t>decrease</t>
   </si>
   <si>
-    <t>对手金币-2。若其本回合未获得新护盾，弃1张牌并失去1点护盾。</t>
+    <t>对手金币-2。若其本回合未获得新护盾，弃其1张牌并让他失去1点护盾。</t>
   </si>
   <si>
     <t>治疗</t>
@@ -383,13 +395,209 @@
   </si>
   <si>
     <r>
+      <t>获得1点护盾。若本回合未受伤害，下三回合</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得1点护盾。若本回合未受伤害，下三回合</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各+1护盾。</t>
+    </r>
+  </si>
+  <si>
+    <t>护盾+1</t>
+  </si>
+  <si>
+    <t>无法获得护盾</t>
+  </si>
+  <si>
+    <t>mountain_judge</t>
+  </si>
+  <si>
+    <t>mountain - 山高水长</t>
+  </si>
+  <si>
+    <t>若本回合未受伤害</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得1点护盾。若未使用战斗类卡牌，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复2点血量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点）。</t>
+    </r>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>获得1点护盾。若未使用战斗类卡牌，恢复2点血量。</t>
+  </si>
+  <si>
+    <t>免疫伤害</t>
+  </si>
+  <si>
+    <t>water_judge</t>
+  </si>
+  <si>
+    <t>water - 水润无声</t>
+  </si>
+  <si>
+    <t>若本回合对面使用防守类卡</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令对手失去1点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并随机弃1张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原“或”改为“且”）。</t>
+    </r>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>令对手失去1点护盾并随机弃1张牌。</t>
+  </si>
+  <si>
+    <t>反甲</t>
+  </si>
+  <si>
+    <t>moon - 月缺花残</t>
+  </si>
+  <si>
+    <t>若其本回合未获得新护盾</t>
+  </si>
+  <si>
+    <t>悲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令对手弃1张手牌。若手牌少于3张，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失去3点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法获得护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <r>
+      <t>令对手弃1张手牌。若对手手牌少于3张，失去3点护盾且下一回合</t>
     </r>
     <r>
       <rPr>
@@ -397,145 +605,59 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>各+1护盾。</t>
-    </r>
-  </si>
-  <si>
-    <t>护盾+1</t>
-  </si>
-  <si>
-    <t>无法获得护盾</t>
-  </si>
-  <si>
-    <t>mountain_judge</t>
-  </si>
-  <si>
-    <t>mountain - 山高水长</t>
-  </si>
-  <si>
-    <t>若本回合未受伤害</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得1点护盾。若未使用战斗类卡牌，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复2点血量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点）。</t>
-    </r>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>获得1点护盾。若未使用战斗类卡牌，恢复2点血量。</t>
-  </si>
-  <si>
-    <t>免疫伤害</t>
-  </si>
-  <si>
-    <t>water_judge</t>
-  </si>
-  <si>
-    <t>water - 水润无声</t>
-  </si>
-  <si>
-    <t>若本回合对面使用防守类卡</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>令对手失去1点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并随机弃1张牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原“或”改为“且”）。</t>
-    </r>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>令对手失去1点护盾并随机弃1张牌。</t>
-  </si>
-  <si>
-    <t>反甲</t>
-  </si>
-  <si>
-    <t>moon - 月缺花残</t>
-  </si>
-  <si>
-    <t>若其本回合未获得新护盾</t>
-  </si>
-  <si>
-    <t>悲</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>令对手弃1张手牌。若手牌少于3张，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失去3点护盾</t>
+      <t>无法获得护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若对手手牌大于等于5张，那么获得一点金币</t>
+    </r>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>sad - 愁云惨雾</t>
+  </si>
+  <si>
+    <t>若未使用战斗类卡牌</t>
+  </si>
+  <si>
+    <t>故乡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得2点护盾。若已有护盾，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复3点血量</t>
     </r>
     <r>
       <rPr>
@@ -554,27 +676,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>且</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法获得护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1回合</t>
+      <t>且下回合抽1张牌</t>
     </r>
     <r>
       <rPr>
@@ -587,207 +689,99 @@
     </r>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>获得2点护盾。若使用后护盾满了，恢复3点血量且下回合抽1张1-2费牌。</t>
+  </si>
+  <si>
+    <t>（抽牌就不算状态了，都是当回合结束结算，下回合开始时就实施抽牌了）</t>
+  </si>
+  <si>
+    <t>弹反</t>
+  </si>
+  <si>
+    <t>home - 归心似箭</t>
+  </si>
+  <si>
+    <t>若本回合受到攻击</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若已失去护盾，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复3点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫下1点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <r>
+      <t>造成2点伤害。若本回合受到攻击，抽2张1-2费牌且下回合</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>令对手弃1张手牌。若对手手牌少于3张，失去3点护盾且下一回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法获得护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若对手手牌大于等于5张，那么获得一点金币</t>
-    </r>
-  </si>
-  <si>
-    <t>破甲</t>
-  </si>
-  <si>
-    <t>sad - 愁云惨雾</t>
-  </si>
-  <si>
-    <t>若未使用战斗类卡牌</t>
-  </si>
-  <si>
-    <t>故乡</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得2点护盾。若已有护盾，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复3点血量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且下回合抽1张牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>获得2点护盾。若使用后护盾满了，恢复3点血量且下回合抽1张牌。</t>
-  </si>
-  <si>
-    <t>（抽牌就不算状态了，都是当回合结束结算，下回合开始时就实施抽牌了）</t>
-  </si>
-  <si>
-    <t>弹反</t>
-  </si>
-  <si>
-    <t>home - 归心似箭</t>
-  </si>
-  <si>
-    <t>若本回合受到攻击</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若已失去护盾，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复3点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>免疫下1点伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若本回合受到攻击，抽2张牌且下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>战斗类卡牌费用+1</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗类卡牌效果+1</t>
     </r>
     <r>
       <rPr>
@@ -1006,7 +1000,444 @@
   </si>
   <si>
     <r>
-      <t>造成2点伤害。伤害前，若对方有护盾，额外破坏2点护盾并使其下回合</t>
+      <t>造成2点伤害。伤害前，若对方有护盾，额外破坏2点护盾并使其下回合防守效果减半</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（倍数修正还要涉及到结算顺序，先加减定量还是先倍数调整，玩家也需要理解，我想的是全部统一为定量数值加减，还便于代码实现，但是如果后端已经写好了相关的就算了）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>护盾-3</t>
+  </si>
+  <si>
+    <t>共14种buff/debuff</t>
+  </si>
+  <si>
+    <t>sun - 烈日当空</t>
+  </si>
+  <si>
+    <t>若未使用其他卡</t>
+  </si>
+  <si>
+    <t>雁</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得2点护盾。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下两回合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首次伤害减少2点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若护盾被破则反弹1点真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得2点护盾。下两回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到伤害减少1点，若护盾被破则反弹1点真实伤害,同时移除本buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>goose - 雁过留声</t>
+  </si>
+  <si>
+    <t>若其下回合获得一定量护盾</t>
+  </si>
+  <si>
+    <t>友情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽1张牌。若手牌少于3张，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再抽2张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1张）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且本回合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡牌费用-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机获得1张1-2费牌。若手牌少于3张，再抽2张牌，但下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击卡牌面值-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>攻击力-1</t>
+  </si>
+  <si>
+    <t>friend - 相逢恨晚</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若对方下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用防守卡，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该卡无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原效果减半）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且追加3点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若对方下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用防守卡，该卡无效且追加3点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>rain_next</t>
+  </si>
+  <si>
+    <t>rain - 山雨欲来</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若已获得护盾，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再造成3点真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点普通伤害）。</t>
+    </r>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若对方下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用了进攻，再造成3点真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>war_next</t>
+  </si>
+  <si>
+    <t>war - 金戈铁马</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得2点护盾并恢复1点血量。若护盾≥3，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外获得2点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原抽1张牌）。</t>
+    </r>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <r>
+      <t>恢复两点血量.若护盾≥3，获得3点护盾。否则下回合受到伤害时</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +1446,423 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>护盾减2</t>
+      <t>免疫1次破盾的额外伤害。</t>
+    </r>
+  </si>
+  <si>
+    <t>免疫+1；护盾+2；治疗+1</t>
+  </si>
+  <si>
+    <t>nature - 天地同春</t>
+  </si>
+  <si>
+    <t>离别</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令对手弃2张手牌。若护盾为0，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成4点真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原2点普通伤害）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且下两回合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法抽牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>byebye</t>
+  </si>
+  <si>
+    <r>
+      <t>令对手弃2张手牌。若对手护盾小于等于3，造成4点真实伤害且下两回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得金币-2（直接复用减金币buff）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>金币-2</t>
+  </si>
+  <si>
+    <t>byebye - 生离死别</t>
+  </si>
+  <si>
+    <t>桃花</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复2点血量，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下三回合各获得2点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合回1点血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复3点血量，下三回合各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得2点护盾且每回合回1点血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>护盾+2；治疗+1</t>
+  </si>
+  <si>
+    <t>flower - 花好月圆</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成3点真实伤害。若未使用其他卡，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽3张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1张）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并破坏对手1点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>bamboo</t>
+  </si>
+  <si>
+    <t>造成3点真实伤害。若未使用其他卡，下回合开始时抽3张1-2费牌并破坏对手1点护盾。</t>
+  </si>
+  <si>
+    <t>bamboo_judge</t>
+  </si>
+  <si>
+    <t>bamboo - 竹报平安</t>
+  </si>
+  <si>
+    <t>壮志难酬</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对手无法获得护盾。若其获得过护盾，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弃3张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1张）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并对其造成等量护盾值的真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>zhuangzhinanchou</t>
+  </si>
+  <si>
+    <r>
+      <t>对手本回合无法获得护盾。若其下回合获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一定量护盾，则同时给己方添加等量护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>zhuangzhinanchou_next</t>
+  </si>
+  <si>
+    <t>zhuangzhinanchou - 壮志难酬</t>
+  </si>
+  <si>
+    <t>淡泊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得4点护盾。若护盾≥5，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复5点血量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原2点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且护盾效果永久+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>danbo</t>
+  </si>
+  <si>
+    <r>
+      <t>获得4点护盾。若使用者护盾≥5且本回合没使用战斗类卡牌，恢复3点血量且护盾+1,如果已经满护盾,那么上限加1，同时下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗类牌面值减2</t>
     </r>
     <r>
       <rPr>
@@ -1024,7 +1871,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（倍数修正还要涉及到结算顺序，先加减定量还是先倍数调整，玩家也需要理解，我想的是全部统一为定量数值加减，还便于代码实现，但是如果后端已经写好了相关的就算了）</t>
+      <t>（倍数修正还要涉及到结算顺序，先加减定量还是先倍数调整，玩家也需要理解，我建议全部统一为数值加减，还便于代码实现，如果后端已经写好了就算了）</t>
     </r>
     <r>
       <rPr>
@@ -1033,43 +1880,162 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>（向上取整）。</t>
+    </r>
+  </si>
+  <si>
+    <t>攻击力-2</t>
+  </si>
+  <si>
+    <t>danbo_judge</t>
+  </si>
+  <si>
+    <t>danbo - 淡泊明志</t>
+  </si>
+  <si>
+    <t>黄河</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成4点伤害。若护盾≥2，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摧毁护盾并造成等量真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原仅摧毁）。</t>
+    </r>
+  </si>
+  <si>
+    <t>yellowriver</t>
+  </si>
+  <si>
+    <t>造成4点真实伤害。若对方护盾≥5，摧毁所有护盾,该效果不可被免疫。</t>
+  </si>
+  <si>
+    <t>yellowriver - 黄河之水</t>
+  </si>
+  <si>
+    <t>思念</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成5点伤害。若对方血量≤10，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加8点真实伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原3点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且无视免疫效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>。</t>
     </r>
   </si>
   <si>
-    <t>护盾-3</t>
-  </si>
-  <si>
-    <t>共14种buff/debuff</t>
-  </si>
-  <si>
-    <t>sun - 烈日当空</t>
-  </si>
-  <si>
-    <t>若未使用其他卡</t>
-  </si>
-  <si>
-    <t>雁</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得2点护盾。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下两回合</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>造成5点伤害。若对方血量≤10，追加3点真实伤害且无视免疫效果。</t>
+  </si>
+  <si>
+    <t>missing - 相思如海</t>
+  </si>
+  <si>
+    <t>长江</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得5点护盾。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下三回合每回合恢复3点血量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原1点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且</t>
     </r>
     <r>
       <rPr>
@@ -1079,31 +2045,12 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>首次伤害减少2点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点），</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若护盾被破则反弹1点真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>护盾上限+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1111,348 +2058,11 @@
     </r>
   </si>
   <si>
-    <t>goose</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得2点护盾。下两回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受到伤害减少1点，若护盾被破则反弹1点真实伤害,同时移除本buff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>goose - 雁过留声</t>
-  </si>
-  <si>
-    <t>若其下回合获得一定量护盾</t>
-  </si>
-  <si>
-    <t>友情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽1张牌。若手牌少于3张，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再抽2张牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1张）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且本回合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡牌费用-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机获得1张1-2费牌。若手牌少于3张，再抽2张牌，但下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击卡牌面值-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>攻击力-1</t>
-  </si>
-  <si>
-    <t>friend - 相逢恨晚</t>
-  </si>
-  <si>
-    <t>雨</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若对方下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用防守卡，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该卡无效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原效果减半）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且追加3点伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若对方下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用防守卡，该卡无效且追加3点伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>rain_next</t>
-  </si>
-  <si>
-    <t>rain - 山雨欲来</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若已获得护盾，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再造成3点真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点普通伤害）。</t>
-    </r>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成2点伤害。若对方下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用了进攻，再造成3点真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>war_next</t>
-  </si>
-  <si>
-    <t>war - 金戈铁马</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得2点护盾并恢复1点血量。若护盾≥3，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>额外获得2点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原抽1张牌）。</t>
-    </r>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <r>
-      <t>若护盾≥3，获得2点护盾。否则下回合</t>
+    <t>longriver</t>
+  </si>
+  <si>
+    <r>
+      <t>获得5点护盾。护盾上限+3。</t>
     </r>
     <r>
       <rPr>
@@ -1461,7 +2071,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>免疫1次破盾的额外伤害。然后恢复2点血量</t>
+      <t>下三回合每回合恢复4点血量</t>
     </r>
     <r>
       <rPr>
@@ -1474,52 +2084,52 @@
     </r>
   </si>
   <si>
-    <t>免疫+1；护盾+2；治疗+1</t>
-  </si>
-  <si>
-    <t>nature - 天地同春</t>
-  </si>
-  <si>
-    <t>离别</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>令对手弃2张手牌。若护盾为0，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成4点真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原2点普通伤害）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且下两回合</t>
+    <t>治疗+4</t>
+  </si>
+  <si>
+    <t>longriver - 长江不息</t>
+  </si>
+  <si>
+    <t>爱情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复5点血量，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下三回合各获得4点护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原2点）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且</t>
     </r>
     <r>
       <rPr>
@@ -1529,7 +2139,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>无法抽牌</t>
+      <t>免疫所有减益</t>
     </r>
     <r>
       <rPr>
@@ -1542,17 +2152,11 @@
     </r>
   </si>
   <si>
-    <t>byebye</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>令对手弃2张手牌。若对手护盾小于等于5，造成4点真实伤害且下两回合</t>
+    <t>love</t>
+  </si>
+  <si>
+    <r>
+      <t>恢复5点血量，失去4点金币，下2回合开始时获得3</t>
     </r>
     <r>
       <rPr>
@@ -1561,659 +2165,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>获得金币-2（直接复用减金币buff）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>金币-2</t>
-  </si>
-  <si>
-    <t>byebye - 生离死别</t>
-  </si>
-  <si>
-    <t>桃花</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复2点血量，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下三回合各获得2点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每回合回1点血</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复3点血量，下三回合各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得2点护盾且每回合回1点血</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>护盾+2；治疗+1</t>
-  </si>
-  <si>
-    <t>flower - 花好月圆</t>
-  </si>
-  <si>
-    <t>竹</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成3点真实伤害。若未使用其他卡，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽3张牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1张）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并破坏对手1点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>bamboo</t>
-  </si>
-  <si>
-    <t>造成3点真实伤害。若未使用其他卡，抽3张牌并破坏对手1点护盾。</t>
-  </si>
-  <si>
-    <t>bamboo_judge</t>
-  </si>
-  <si>
-    <t>bamboo - 竹报平安</t>
-  </si>
-  <si>
-    <t>壮志难酬</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对手无法获得护盾。若其获得过护盾，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>弃3张牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1张）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并对其造成等量护盾值的真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>zhuangzhinanchou</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对手本回合无法获得护盾。若其下回合获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一定量护盾，则同时给己方添加等量护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>zhuangzhinanchou_next</t>
-  </si>
-  <si>
-    <t>zhuangzhinanchou - 壮志难酬</t>
-  </si>
-  <si>
-    <t>淡泊</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得4点护盾。若护盾≥5，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复5点血量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原2点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且护盾效果永久+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>danbo</t>
-  </si>
-  <si>
-    <r>
-      <t>获得4点护盾。若使用者护盾≥5且本回合没使用战斗类卡牌，恢复3点血量且护盾上限+1，但是下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>战斗类牌面值减2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（倍数修正还要涉及到结算顺序，先加减定量还是先倍数调整，玩家也需要理解，我建议全部统一为数值加减，还便于代码实现，如果后端已经写好了就算了）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（向上取整）。</t>
-    </r>
-  </si>
-  <si>
-    <t>攻击力-2</t>
-  </si>
-  <si>
-    <t>danbo_judge</t>
-  </si>
-  <si>
-    <t>danbo - 淡泊明志</t>
-  </si>
-  <si>
-    <t>黄河</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成4点伤害。若护盾≥2，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摧毁护盾并造成等量真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原仅摧毁）。</t>
-    </r>
-  </si>
-  <si>
-    <t>yellowriver</t>
-  </si>
-  <si>
-    <t>造成4点真实伤害。若对方护盾≥5，摧毁所有护盾。</t>
-  </si>
-  <si>
-    <t>yellowriver - 黄河之水</t>
-  </si>
-  <si>
-    <t>思念</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>造成5点伤害。若对方血量≤10，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>追加8点真实伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原3点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且无视免疫效果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>造成5点伤害。若对方血量≤10，追加5点真实伤害且无视免疫效果。</t>
-  </si>
-  <si>
-    <t>missing - 相思如海</t>
-  </si>
-  <si>
-    <t>长江</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得5点护盾。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下三回合每回合恢复3点血量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原1点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护盾上限+3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>longriver</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得5点护盾。护盾上限+3。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下三回合每回合恢复4点血量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>治疗+4</t>
-  </si>
-  <si>
-    <t>longriver - 长江不息</t>
-  </si>
-  <si>
-    <t>爱情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复5点血量，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下三回合各获得4点护盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原2点）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>且</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>免疫所有减益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复5点血量，失去2点金币，下2回合各获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4点护盾且免疫所有减益，同时每回合开始时减少3枚金币</t>
+      <t>点护盾且免疫所有新增减益,当对手卡牌的附加效果包含针对你的负面状态时，免疫该附加效果（卡牌的主要功能仍正常生效，且不会触发新的负面状态）。，同时每回合开始时减少3枚金币</t>
     </r>
     <r>
       <rPr>
@@ -2245,7 +2197,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2274,32 +2226,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2457,6 +2383,31 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFEE0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFEE0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2472,40 +2423,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEE0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFEE0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2575,12 +2494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2858,137 +2771,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3008,33 +2921,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3606,24 +3510,24 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="29.75" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="32.6296296296296" customWidth="1"/>
-    <col min="10" max="10" width="13.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="32.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.1333333333333" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.8796296296296" customWidth="1"/>
-    <col min="14" max="14" width="37.8796296296296" customWidth="1"/>
-    <col min="15" max="15" width="25.3796296296296" customWidth="1"/>
+    <col min="13" max="13" width="29.8833333333333" customWidth="1"/>
+    <col min="14" max="14" width="37.8833333333333" customWidth="1"/>
+    <col min="15" max="15" width="25.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3649,18 +3553,18 @@
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="43.2" spans="1:14">
+    <row r="2" ht="40.5" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3670,29 +3574,29 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -3702,7 +3606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:14">
+    <row r="3" ht="40.5" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3712,29 +3616,29 @@
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -3744,7 +3648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:14">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -3754,27 +3658,27 @@
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -3784,7 +3688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:15">
+    <row r="5" ht="40.5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -3798,23 +3702,23 @@
         <v>38</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -3824,7 +3728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:15">
+    <row r="6" ht="40.5" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3834,29 +3738,29 @@
       <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -3866,7 +3770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:15">
+    <row r="7" ht="27" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -3880,23 +3784,23 @@
         <v>58</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -3906,7 +3810,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:15">
+    <row r="8" ht="27" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3920,23 +3824,23 @@
         <v>66</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3944,7 +3848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:15">
+    <row r="9" ht="51" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
@@ -3954,29 +3858,29 @@
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>74</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -3986,7 +3890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="86.4" spans="1:15">
+    <row r="10" ht="63.75" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
@@ -3996,29 +3900,29 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>81</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -4028,7 +3932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:15">
+    <row r="11" ht="40.5" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>87</v>
       </c>
@@ -4038,29 +3942,29 @@
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>92</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -4070,7 +3974,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" ht="57.6" spans="1:15">
+    <row r="12" ht="54" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -4080,29 +3984,29 @@
       <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>101</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -4112,7 +4016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" ht="115.2" spans="1:15">
+    <row r="13" ht="89.25" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>104</v>
       </c>
@@ -4122,29 +4026,29 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>2</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -4154,7 +4058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="1:15">
+    <row r="14" ht="40.5" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>112</v>
       </c>
@@ -4164,27 +4068,27 @@
       <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>2</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>114</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -4194,7 +4098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" ht="43.2" spans="1:13">
+    <row r="15" ht="40.5" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>118</v>
       </c>
@@ -4204,34 +4108,34 @@
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>2</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>120</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" ht="43.2" spans="1:13">
+    <row r="16" ht="40.5" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>124</v>
       </c>
@@ -4241,34 +4145,34 @@
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
         <v>128</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" ht="43.2" spans="1:13">
+    <row r="17" ht="40.5" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>130</v>
       </c>
@@ -4282,30 +4186,30 @@
         <v>131</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>2</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
         <v>134</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="1:13">
+    <row r="18" ht="40.5" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>136</v>
       </c>
@@ -4319,30 +4223,30 @@
         <v>137</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" ht="57.6" spans="1:13">
+    <row r="19" ht="40.5" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>142</v>
       </c>
@@ -4352,34 +4256,34 @@
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="1:13">
+    <row r="20" ht="40.5" spans="1:13">
       <c r="A20" s="4" t="s">
         <v>148</v>
       </c>
@@ -4389,34 +4293,34 @@
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>3</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7" t="s">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:13">
+    <row r="21" ht="40.5" spans="1:13">
       <c r="A21" s="4" t="s">
         <v>154</v>
       </c>
@@ -4430,28 +4334,28 @@
         <v>155</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>3</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>158</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:13">
+    <row r="22" ht="40.5" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>160</v>
       </c>
@@ -4465,30 +4369,30 @@
         <v>161</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>3</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
         <v>164</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" ht="129.6" spans="1:13">
+    <row r="23" ht="102" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>166</v>
       </c>
@@ -4502,30 +4406,30 @@
         <v>167</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
         <v>171</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="1:13">
+    <row r="24" ht="40.5" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>173</v>
       </c>
@@ -4539,28 +4443,26 @@
         <v>174</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:13">
+    <row r="25" ht="40.5" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>178</v>
       </c>
@@ -4574,26 +4476,26 @@
         <v>179</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>5</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" ht="43.2" spans="1:13">
+    <row r="26" ht="40.5" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>183</v>
       </c>
@@ -4603,34 +4505,34 @@
       <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
         <v>185</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" ht="43.2" spans="1:13">
+    <row r="27" ht="76.5" spans="1:13">
       <c r="A27" s="4" t="s">
         <v>189</v>
       </c>
@@ -4640,27 +4542,27 @@
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>7</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
         <v>191</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -4675,7 +4577,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>195</v>
       </c>
     </row>

--- a/BG/设计表cyr.xlsx
+++ b/BG/设计表cyr.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new git\YunZhou_Rhymes\BG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E593CF-E482-487C-B9B4-342C018ECCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="8424"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -103,6 +99,34 @@
     <t>profit</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复2点血量。若本回合未受攻击，下回合开始时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得3金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，且抽1张1-3费牌。</t>
+    </r>
+  </si>
+  <si>
     <t>金币+1</t>
   </si>
   <si>
@@ -573,6 +597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>令对手弃1张手牌。若对手手牌少于3张，失去3点护盾且下一回合</t>
     </r>
     <r>
@@ -749,6 +779,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>造成2点伤害。若本回合受到攻击，抽2张1-2费牌且下回合</t>
     </r>
     <r>
@@ -848,6 +884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得2点护盾。若本回合受到攻击，恢复2点护盾并</t>
     </r>
     <r>
@@ -976,6 +1018,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>造成2点伤害。伤害前，若对方有护盾，额外破坏2点护盾并使其下回合防守效果减半</t>
     </r>
     <r>
@@ -1272,6 +1320,34 @@
     <t>rain</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成2点伤害。若对方下回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用防守卡，该卡无效且追加3点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
     <t>rain_next</t>
   </si>
   <si>
@@ -1385,6 +1461,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恢复两点血量.若护盾≥3，获得3点护盾。否则下回合受到伤害时</t>
     </r>
     <r>
@@ -1470,6 +1552,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>令对手弃2张手牌。若对手护盾小于等于3，造成4点真实伤害且下两回合</t>
     </r>
     <r>
@@ -1717,6 +1805,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对手本回合无法获得护盾。若其下回合获得</t>
     </r>
     <r>
@@ -1801,6 +1895,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得4点护盾。若使用者护盾≥5且本回合没使用战斗类卡牌，恢复3点血量且护盾+1,如果已经满护盾,那么上限加1，同时下回合</t>
     </r>
     <r>
@@ -2010,6 +2110,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>获得5点护盾。护盾上限+3。</t>
     </r>
     <r>
@@ -2104,6 +2210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恢复5点血量，失去4点金币，下2回合开始时获得3</t>
     </r>
     <r>
@@ -2133,59 +2245,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t>恢复2点血量。若本回合未受攻击，下回合开始时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得3金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，且抽1张1-3费牌。</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成2点伤害。若对方下回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用防守卡，该卡无效且追加3点伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,25 +2293,175 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FFEE0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFEE0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2251,7 +2473,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FFEE0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2267,22 +2489,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2297,7 +2505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,8 +2515,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2331,9 +2725,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2365,30 +3001,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2416,165 +3107,41 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -2585,7 +3152,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2613,40 +3180,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
-      <tableStyleElement type="lastColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="10"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="9"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="8"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="7"/>
-      <tableStyleElement type="pageFieldValues" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
+      <tableStyleElement type="pageFieldValues" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2896,32 +3577,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="8.77777777777778" customWidth="1"/>
+    <col min="9" max="9" width="32.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.1111111111111" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" customWidth="1"/>
-    <col min="14" max="14" width="37.88671875" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="37.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="25.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.8" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +3639,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" ht="43.2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2981,312 +3662,312 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>194</v>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="L2" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" ht="43.2" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" ht="43.2" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="9" t="s">
-        <v>31</v>
+      <c r="K4" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" ht="43.2" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="9" t="s">
-        <v>41</v>
+      <c r="K5" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" ht="43.2" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L6" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" ht="28.8" spans="1:15">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="9" t="s">
-        <v>60</v>
+      <c r="K7" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="28.8" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="9" t="s">
-        <v>68</v>
+      <c r="K8" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="57.6" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="10" ht="86.4" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -3295,11 +3976,11 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
@@ -3308,193 +3989,193 @@
         <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" ht="43.2" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>24</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="57.6" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="K12" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="L12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="13" ht="115.2" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" ht="43.2" spans="1:15">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="6">
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="15" ht="43.2" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -3503,11 +4184,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
@@ -3516,170 +4197,170 @@
         <v>11</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" ht="43.2" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>195</v>
+        <v>22</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" ht="43.2" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" ht="43.2" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G18" s="6">
         <v>2</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="19" ht="57.6" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G19" s="6">
         <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" ht="43.2" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -3688,11 +4369,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G20" s="6">
         <v>3</v>
@@ -3701,234 +4382,234 @@
         <v>11</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" ht="43.2" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" s="6">
         <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" ht="43.2" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G22" s="6">
         <v>3</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+    <row r="23" ht="144" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="6">
         <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="43.2" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="5">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G24" s="6">
         <v>4</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="25" ht="43.2" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B25" s="5">
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="6">
         <v>5</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="26" ht="43.2" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="6">
         <v>5</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="27" ht="115.2" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B27" s="5">
         <v>7</v>
@@ -3937,11 +4618,11 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G27" s="6">
         <v>7</v>
@@ -3950,34 +4631,33 @@
         <v>11</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5">
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3989,7 +4669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G$1:G$1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4001,29 +4681,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"defense"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"battle"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"profit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="next">
+  <conditionalFormatting sqref="L$1:L$1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="between" text="next">
       <formula>NOT(ISERROR(SEARCH("next",L1)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(L1))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="judge">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="between" text="judge">
       <formula>NOT(ISERROR(SEARCH("judge",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>